--- a/bases/ataque.xlsx
+++ b/bases/ataque.xlsx
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V48" sqref="V48"/>
+    <sheetView tabSelected="1" topLeftCell="M31" workbookViewId="0">
+      <selection activeCell="V50" sqref="V50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3567,6 +3567,136 @@
         <v>8</v>
       </c>
     </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>38</v>
+      </c>
+      <c r="C49">
+        <v>62</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>9</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>6</v>
+      </c>
+      <c r="L49">
+        <v>336</v>
+      </c>
+      <c r="M49">
+        <v>537</v>
+      </c>
+      <c r="N49">
+        <v>261</v>
+      </c>
+      <c r="O49">
+        <v>470</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>4</v>
+      </c>
+      <c r="R49">
+        <v>60</v>
+      </c>
+      <c r="S49">
+        <v>28</v>
+      </c>
+      <c r="T49">
+        <v>13</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>39</v>
+      </c>
+      <c r="D50">
+        <v>27</v>
+      </c>
+      <c r="E50">
+        <v>17</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>13</v>
+      </c>
+      <c r="I50">
+        <v>12</v>
+      </c>
+      <c r="J50">
+        <v>14</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>502</v>
+      </c>
+      <c r="M50">
+        <v>322</v>
+      </c>
+      <c r="N50">
+        <v>448</v>
+      </c>
+      <c r="O50">
+        <v>262</v>
+      </c>
+      <c r="P50">
+        <v>10</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>30</v>
+      </c>
+      <c r="S50">
+        <v>18</v>
+      </c>
+      <c r="T50">
+        <v>29</v>
+      </c>
+      <c r="U50">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
